--- a/Journaux de travail/Journal_PedroPinto.xlsx
+++ b/Journaux de travail/Journal_PedroPinto.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro.PINTO\Documents\GitHub\ProjetWeb_Annonces\Journeaux de travaille\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro.PINTO\Documents\GitHub\ProjetWeb_Annonces\Journaux de travail\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="48">
   <si>
     <t>Date</t>
   </si>
@@ -171,6 +171,20 @@
   <si>
     <t xml:space="preserve">Cloturation du 1er sprinte + envois de l'analyse du projet + Début du 2éme sprint sur le 
 repository </t>
+  </si>
+  <si>
+    <t>12H30</t>
+  </si>
+  <si>
+    <t>110min</t>
+  </si>
+  <si>
+    <t>Ajout de multiples fonctions PHP 
+-Mise en place des éléments nécesaires a la 
+creation du code qui s'occupera de la gestion     et de l'affichage des annonces
+-Creation de la fonction allent chercher les données insérées dans les annonces
+-Création de la fonction permetant l'organisation dans le controleur
+-Ajout de la page submitAdd dans l'index en metode POST</t>
   </si>
 </sst>
 </file>
@@ -917,8 +931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1255,15 +1269,25 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="8"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="6"/>
+    <row r="19" spans="2:7" ht="142.5" x14ac:dyDescent="0.25">
+      <c r="B19" s="8">
+        <v>44258</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="F19" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="11"/>
+      <c r="G19" s="11" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="8"/>

--- a/Journaux de travail/Journal_PedroPinto.xlsx
+++ b/Journaux de travail/Journal_PedroPinto.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="49">
   <si>
     <t>Date</t>
   </si>
@@ -185,6 +185,12 @@
 -Creation de la fonction allent chercher les données insérées dans les annonces
 -Création de la fonction permetant l'organisation dans le controleur
 -Ajout de la page submitAdd dans l'index en metode POST</t>
+  </si>
+  <si>
+    <t>Ajout dans la page d'acceuile 
+-CSS réorganisé 
+-Mis a jour de la version de Bootstrap + 
+Réparation des conflits</t>
   </si>
 </sst>
 </file>
@@ -931,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1289,15 +1295,25 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="8"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="6"/>
+    <row r="20" spans="2:7" ht="57" x14ac:dyDescent="0.25">
+      <c r="B20" s="8">
+        <v>44258</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="F20" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="11"/>
+      <c r="G20" s="11" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="8"/>

--- a/Journaux de travail/Journal_PedroPinto.xlsx
+++ b/Journaux de travail/Journal_PedroPinto.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="55">
   <si>
     <t>Date</t>
   </si>
@@ -191,6 +191,27 @@
 -CSS réorganisé 
 -Mis a jour de la version de Bootstrap + 
 Réparation des conflits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recuperation des donnée du formulaire + 
+affichage annonces </t>
+  </si>
+  <si>
+    <t>180min</t>
+  </si>
+  <si>
+    <t>Réparataion de la misse en page des images
+Affichage dynamique des annonces
+Ouverture sprint 3</t>
+  </si>
+  <si>
+    <t>15H20</t>
+  </si>
+  <si>
+    <t>16h55</t>
+  </si>
+  <si>
+    <t>Rédaction de l'integralité de la conseption dans le CDC + Suppresion de librairies inutiles</t>
   </si>
 </sst>
 </file>
@@ -937,8 +958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -949,7 +970,7 @@
     <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.7109375" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.5">
@@ -1315,45 +1336,85 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="8"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="6"/>
+    <row r="21" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B21" s="8">
+        <v>44272</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="F21" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="12"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="8"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="6"/>
+      <c r="G21" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B22" s="8">
+        <v>44274</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="F22" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="11"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="8"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="6"/>
+      <c r="G22" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B23" s="8">
+        <v>44274</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="F23" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="11"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="8"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="6"/>
+      <c r="G23" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="8">
+        <v>44277</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="F24" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="11"/>
+      <c r="G24" s="11" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="8"/>

--- a/Journaux de travail/Journal_PedroPinto.xlsx
+++ b/Journaux de travail/Journal_PedroPinto.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="56">
   <si>
     <t>Date</t>
   </si>
@@ -161,10 +161,6 @@
     <t>10H00</t>
   </si>
   <si>
-    <t>Retour sur la fin du sprinte 1
-et le début du sprinte 2 avec  Mr.Chavais et Simon Cuany</t>
-  </si>
-  <si>
     <t>Rédaction de l'analyse dans la documentationb 
 avec Simon Cuany</t>
   </si>
@@ -212,6 +208,13 @@
   </si>
   <si>
     <t>Rédaction de l'integralité de la conseption dans le CDC + Suppresion de librairies inutiles</t>
+  </si>
+  <si>
+    <t>Retour sur la fin du sprinte 1
+et le début du sprinte 2 avec  Mr.Chaveys et Simon Cuany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redaction du CDC </t>
   </si>
 </sst>
 </file>
@@ -958,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1236,7 +1239,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B16" s="8">
         <v>44256</v>
       </c>
@@ -1253,7 +1256,7 @@
         <v>10</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="42.75" x14ac:dyDescent="0.25">
@@ -1273,10 +1276,10 @@
         <v>10</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="57" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B18" s="8">
         <v>44256</v>
       </c>
@@ -1293,7 +1296,7 @@
         <v>10</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="142.5" x14ac:dyDescent="0.25">
@@ -1304,16 +1307,16 @@
         <v>7</v>
       </c>
       <c r="D19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="F19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="11" t="s">
         <v>46</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="57" x14ac:dyDescent="0.25">
@@ -1333,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
@@ -1353,7 +1356,7 @@
         <v>10</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
@@ -1373,7 +1376,7 @@
         <v>10</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
@@ -1381,10 +1384,10 @@
         <v>44274</v>
       </c>
       <c r="C23" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>34</v>
@@ -1393,7 +1396,7 @@
         <v>10</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="42.75" x14ac:dyDescent="0.25">
@@ -1407,24 +1410,34 @@
         <v>7</v>
       </c>
       <c r="E24" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="8"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="6"/>
+      <c r="B25" s="8">
+        <v>44277</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="F25" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G25" s="12"/>
+      <c r="G25" s="12" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="8"/>

--- a/Journaux de travail/Journal_PedroPinto.xlsx
+++ b/Journaux de travail/Journal_PedroPinto.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="66">
   <si>
     <t>Date</t>
   </si>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>Déscription</t>
-  </si>
-  <si>
-    <t>Journal de travaille (Pedro Pinto)</t>
   </si>
   <si>
     <t>10H40</t>
@@ -214,7 +211,42 @@
 et le début du sprinte 2 avec  Mr.Chaveys et Simon Cuany</t>
   </si>
   <si>
-    <t xml:space="preserve">Redaction du CDC </t>
+    <t xml:space="preserve">Redaction du CDC Mise en service + Conclusion </t>
+  </si>
+  <si>
+    <t>Rédaction du CDC Annexes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Réparation des problémes liées a 
+l'affichage des annonces </t>
+  </si>
+  <si>
+    <t>10H35</t>
+  </si>
+  <si>
+    <t>155min</t>
+  </si>
+  <si>
+    <t>Organnisation de documents + préparation livrables finals</t>
+  </si>
+  <si>
+    <t>10h40</t>
+  </si>
+  <si>
+    <t>12H40</t>
+  </si>
+  <si>
+    <t>120min</t>
+  </si>
+  <si>
+    <t>Relecture + Organisation + finalisation de
+ la documentation</t>
+  </si>
+  <si>
+    <t>14H30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Réorganisation de github+préparation du rendu final </t>
   </si>
 </sst>
 </file>
@@ -224,7 +256,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="hh/mm&quot; h&quot;;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,31 +272,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Arial Black"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -319,38 +338,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="20" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -435,6 +453,84 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1" tint="0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -590,84 +686,6 @@
         </horizontal>
       </border>
     </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1" tint="0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -682,13 +700,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau2" displayName="Tableau2" ref="B3:G30" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau2" displayName="Tableau2" ref="B3:G30" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4" totalsRowBorderDxfId="2">
   <autoFilter ref="B3:G30"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Date" dataDxfId="5"/>
-    <tableColumn id="2" name="Heure début" dataDxfId="4"/>
-    <tableColumn id="3" name="Heure fin" dataDxfId="3"/>
-    <tableColumn id="4" name="Temps" dataDxfId="2"/>
+    <tableColumn id="1" name="Date" dataDxfId="10"/>
+    <tableColumn id="2" name="Heure début" dataDxfId="9"/>
+    <tableColumn id="3" name="Heure fin" dataDxfId="8"/>
+    <tableColumn id="4" name="Temps" dataDxfId="7"/>
     <tableColumn id="5" name="Projet" dataDxfId="1"/>
     <tableColumn id="6" name="Déscription" dataDxfId="0"/>
   </tableColumns>
@@ -959,10 +977,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G30"/>
+  <dimension ref="B1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,523 +991,571 @@
     <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.28515625" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="2:7" ht="63" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" s="3" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="7"/>
+      <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="8"/>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="7">
+        <v>44230</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="7">
+        <v>44232</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="E6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="11" t="s">
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="7">
+        <v>44232</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="7">
+        <v>44232</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B9" s="7">
+        <v>44235</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="7">
+        <v>44235</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="7">
+        <v>44235</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="8">
-        <v>44230</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="E11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="99.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="7">
+        <v>44235</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="7">
+        <v>44239</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="7">
+        <v>44242</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="7">
+        <v>44242</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="8">
-        <v>44232</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="F15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B16" s="7">
+        <v>44256</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="7">
+        <v>44256</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="8">
-        <v>44232</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="8">
-        <v>44232</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="6" t="s">
+      <c r="F17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="7">
+        <v>44256</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="F18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="142.5" x14ac:dyDescent="0.25">
+      <c r="B19" s="7">
+        <v>44258</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="57" x14ac:dyDescent="0.25">
+      <c r="B20" s="7">
+        <v>44258</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B21" s="7">
+        <v>44272</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B22" s="7">
+        <v>44274</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B23" s="7">
+        <v>44274</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="7">
+        <v>44277</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B9" s="8">
-        <v>44235</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B10" s="8">
-        <v>44235</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="8">
-        <v>44235</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="99.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="8">
-        <v>44235</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="11" t="s">
+      <c r="D24" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="7">
+        <v>44277</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="8">
-        <v>44239</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="E25" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="8">
-        <v>44242</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="5" t="s">
+      <c r="F25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="7">
+        <v>44279</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B27" s="7">
+        <v>44281</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B28" s="7">
+        <v>44284</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="8">
-        <v>44242</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B16" s="8">
-        <v>44256</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="8">
-        <v>44256</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="8">
-        <v>44256</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="142.5" x14ac:dyDescent="0.25">
-      <c r="B19" s="8">
-        <v>44258</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="5" t="s">
+      <c r="D28" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B29" s="7">
+        <v>44286</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="7">
+        <v>44286</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="57" x14ac:dyDescent="0.25">
-      <c r="B20" s="8">
-        <v>44258</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B21" s="8">
-        <v>44272</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B22" s="8">
-        <v>44274</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B23" s="8">
-        <v>44274</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="8">
-        <v>44277</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="8">
-        <v>44277</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="8"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" s="12"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="8"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="12"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="8"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="11"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="8"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="12"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="8"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="12"/>
+      <c r="F30" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>65</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
